--- a/public/database/csmc-database.xlsx
+++ b/public/database/csmc-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Supahotfile\pkw\csmc\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E7E46B-6C5B-46A3-A35A-CF0B92438BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83374E68-FC54-4B3F-B8AA-A7035CD1C662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="2076">
   <si>
     <t>ประทับเวลา</t>
   </si>
@@ -6246,6 +6246,9 @@
   </si>
   <si>
     <t>1839902267328</t>
+  </si>
+  <si>
+    <t>1839902244697</t>
   </si>
 </sst>
 </file>
@@ -22134,7 +22137,7 @@
   <dimension ref="A1:V356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="22.2" x14ac:dyDescent="0.6"/>
@@ -22777,8 +22780,8 @@
       <c r="I10" s="19">
         <v>12</v>
       </c>
-      <c r="J10" s="20">
-        <v>1839902244697</v>
+      <c r="J10" s="20" t="s">
+        <v>2075</v>
       </c>
       <c r="K10" s="19">
         <v>842436098</v>

--- a/public/database/csmc-database.xlsx
+++ b/public/database/csmc-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Supahotfile\pkw\csmc\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83374E68-FC54-4B3F-B8AA-A7035CD1C662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D930424B-FF04-4E95-8CCC-BFB4EC84D740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2075">
   <si>
     <t>ประทับเวลา</t>
   </si>
@@ -6240,9 +6240,6 @@
   </si>
   <si>
     <t>1839902295861</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
   <si>
     <t>1839902267328</t>
@@ -22136,8 +22133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E1366-D40A-4A17-B84D-3F0CAAAAF493}">
   <dimension ref="A1:V356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="22.2" x14ac:dyDescent="0.6"/>
@@ -22385,7 +22382,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>805</v>
@@ -22781,7 +22778,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="K10" s="19">
         <v>842436098</v>
@@ -23526,8 +23523,8 @@
       <c r="Q21" s="19">
         <v>20</v>
       </c>
-      <c r="R21" s="19" t="s">
-        <v>2073</v>
+      <c r="R21" s="19">
+        <v>20</v>
       </c>
       <c r="S21" s="19">
         <v>20</v>

--- a/public/database/csmc-database.xlsx
+++ b/public/database/csmc-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Supahotfile\pkw\csmc\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D930424B-FF04-4E95-8CCC-BFB4EC84D740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7E123-DB4C-41DB-81DA-6BCF4246DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="ต้นฉบับ" sheetId="1" r:id="rId1"/>
     <sheet name="เรียงชื่อ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6203" uniqueCount="2076">
   <si>
     <t>ประทับเวลา</t>
   </si>
@@ -6246,6 +6259,9 @@
   </si>
   <si>
     <t>1839902244697</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -22133,8 +22149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0E1366-D40A-4A17-B84D-3F0CAAAAF493}">
   <dimension ref="A1:V356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V257" sqref="V257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="22.2" x14ac:dyDescent="0.6"/>
@@ -22219,7 +22235,9 @@
       <c r="U1" s="10" t="s">
         <v>2071</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="10" t="s">
+        <v>2075</v>
+      </c>
     </row>
     <row r="2" spans="1:22" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
@@ -22285,7 +22303,10 @@
       <c r="U2" s="19">
         <v>1</v>
       </c>
-      <c r="V2" s="19"/>
+      <c r="V2" s="19">
+        <f>SUM(Q2:U2)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -22351,7 +22372,10 @@
       <c r="U3" s="19">
         <v>2</v>
       </c>
-      <c r="V3" s="19"/>
+      <c r="V3" s="19">
+        <f t="shared" ref="V3:V66" si="0">SUM(Q3:U3)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
@@ -22417,7 +22441,10 @@
       <c r="U4" s="19">
         <v>3</v>
       </c>
-      <c r="V4" s="19"/>
+      <c r="V4" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -22483,7 +22510,10 @@
       <c r="U5" s="19">
         <v>4</v>
       </c>
-      <c r="V5" s="19"/>
+      <c r="V5" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -22549,7 +22579,10 @@
       <c r="U6" s="19">
         <v>5</v>
       </c>
-      <c r="V6" s="19"/>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -22615,7 +22648,10 @@
       <c r="U7" s="19">
         <v>6</v>
       </c>
-      <c r="V7" s="19"/>
+      <c r="V7" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -22681,7 +22717,10 @@
       <c r="U8" s="19">
         <v>7</v>
       </c>
-      <c r="V8" s="19"/>
+      <c r="V8" s="19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -22747,7 +22786,10 @@
       <c r="U9" s="19">
         <v>8</v>
       </c>
-      <c r="V9" s="19"/>
+      <c r="V9" s="19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -22809,7 +22851,10 @@
       <c r="U10" s="19">
         <v>9</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="19">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -22875,7 +22920,10 @@
       <c r="U11" s="19">
         <v>10</v>
       </c>
-      <c r="V11" s="19"/>
+      <c r="V11" s="19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -22941,7 +22989,10 @@
       <c r="U12" s="19">
         <v>11</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="19">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
@@ -23007,7 +23058,10 @@
       <c r="U13" s="19">
         <v>12</v>
       </c>
-      <c r="V13" s="19"/>
+      <c r="V13" s="19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
@@ -23073,7 +23127,10 @@
       <c r="U14" s="19">
         <v>13</v>
       </c>
-      <c r="V14" s="19"/>
+      <c r="V14" s="19">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -23139,7 +23196,10 @@
       <c r="U15" s="19">
         <v>14</v>
       </c>
-      <c r="V15" s="19"/>
+      <c r="V15" s="19">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -23205,7 +23265,10 @@
       <c r="U16" s="19">
         <v>15</v>
       </c>
-      <c r="V16" s="19"/>
+      <c r="V16" s="19">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
@@ -23271,7 +23334,10 @@
       <c r="U17" s="19">
         <v>16</v>
       </c>
-      <c r="V17" s="19"/>
+      <c r="V17" s="19">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
@@ -23337,7 +23403,10 @@
       <c r="U18" s="19">
         <v>17</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
@@ -23403,7 +23472,10 @@
       <c r="U19" s="19">
         <v>18</v>
       </c>
-      <c r="V19" s="19"/>
+      <c r="V19" s="19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
@@ -23469,7 +23541,10 @@
       <c r="U20" s="19">
         <v>19</v>
       </c>
-      <c r="V20" s="19"/>
+      <c r="V20" s="19">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -23535,7 +23610,10 @@
       <c r="U21" s="19">
         <v>20</v>
       </c>
-      <c r="V21" s="19"/>
+      <c r="V21" s="19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
@@ -23601,7 +23679,10 @@
       <c r="U22" s="19">
         <v>21</v>
       </c>
-      <c r="V22" s="19"/>
+      <c r="V22" s="19">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
@@ -23667,7 +23748,10 @@
       <c r="U23" s="19">
         <v>22</v>
       </c>
-      <c r="V23" s="19"/>
+      <c r="V23" s="19">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
@@ -23733,7 +23817,10 @@
       <c r="U24" s="19">
         <v>23</v>
       </c>
-      <c r="V24" s="19"/>
+      <c r="V24" s="19">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="25" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
@@ -23799,7 +23886,10 @@
       <c r="U25" s="19">
         <v>24</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="19">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
@@ -23865,7 +23955,10 @@
       <c r="U26" s="19">
         <v>25</v>
       </c>
-      <c r="V26" s="19"/>
+      <c r="V26" s="19">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="27" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
@@ -23931,7 +24024,10 @@
       <c r="U27" s="19">
         <v>26</v>
       </c>
-      <c r="V27" s="19"/>
+      <c r="V27" s="19">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="28" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
@@ -23997,7 +24093,10 @@
       <c r="U28" s="19">
         <v>27</v>
       </c>
-      <c r="V28" s="19"/>
+      <c r="V28" s="19">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="29" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
@@ -24063,7 +24162,10 @@
       <c r="U29" s="19">
         <v>28</v>
       </c>
-      <c r="V29" s="19"/>
+      <c r="V29" s="19">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -24129,7 +24231,10 @@
       <c r="U30" s="19">
         <v>29</v>
       </c>
-      <c r="V30" s="19"/>
+      <c r="V30" s="19">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="31" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
@@ -24195,7 +24300,10 @@
       <c r="U31" s="19">
         <v>30</v>
       </c>
-      <c r="V31" s="19"/>
+      <c r="V31" s="19">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="32" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
@@ -24261,7 +24369,10 @@
       <c r="U32" s="19">
         <v>31</v>
       </c>
-      <c r="V32" s="19"/>
+      <c r="V32" s="19">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
@@ -24327,7 +24438,10 @@
       <c r="U33" s="19">
         <v>32</v>
       </c>
-      <c r="V33" s="19"/>
+      <c r="V33" s="19">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="34" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
@@ -24393,7 +24507,10 @@
       <c r="U34" s="19">
         <v>33</v>
       </c>
-      <c r="V34" s="19"/>
+      <c r="V34" s="19">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="35" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
@@ -24459,7 +24576,10 @@
       <c r="U35" s="19">
         <v>34</v>
       </c>
-      <c r="V35" s="19"/>
+      <c r="V35" s="19">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
     </row>
     <row r="36" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
@@ -24525,7 +24645,10 @@
       <c r="U36" s="19">
         <v>35</v>
       </c>
-      <c r="V36" s="19"/>
+      <c r="V36" s="19">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="37" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
@@ -24591,7 +24714,10 @@
       <c r="U37" s="19">
         <v>36</v>
       </c>
-      <c r="V37" s="19"/>
+      <c r="V37" s="19">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="38" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
@@ -24657,7 +24783,10 @@
       <c r="U38" s="19">
         <v>37</v>
       </c>
-      <c r="V38" s="19"/>
+      <c r="V38" s="19">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="39" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
@@ -24723,7 +24852,10 @@
       <c r="U39" s="19">
         <v>38</v>
       </c>
-      <c r="V39" s="19"/>
+      <c r="V39" s="19">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="40" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
@@ -24789,7 +24921,10 @@
       <c r="U40" s="19">
         <v>39</v>
       </c>
-      <c r="V40" s="19"/>
+      <c r="V40" s="19">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
     </row>
     <row r="41" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
@@ -24855,7 +24990,10 @@
       <c r="U41" s="19">
         <v>40</v>
       </c>
-      <c r="V41" s="19"/>
+      <c r="V41" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="42" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
@@ -24921,7 +25059,10 @@
       <c r="U42" s="19">
         <v>41</v>
       </c>
-      <c r="V42" s="19"/>
+      <c r="V42" s="19">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
@@ -24987,7 +25128,10 @@
       <c r="U43" s="19">
         <v>42</v>
       </c>
-      <c r="V43" s="19"/>
+      <c r="V43" s="19">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="44" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
@@ -25053,7 +25197,10 @@
       <c r="U44" s="19">
         <v>43</v>
       </c>
-      <c r="V44" s="19"/>
+      <c r="V44" s="19">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
     </row>
     <row r="45" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
@@ -25119,7 +25266,10 @@
       <c r="U45" s="19">
         <v>44</v>
       </c>
-      <c r="V45" s="19"/>
+      <c r="V45" s="19">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
     </row>
     <row r="46" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
@@ -25185,7 +25335,10 @@
       <c r="U46" s="19">
         <v>45</v>
       </c>
-      <c r="V46" s="19"/>
+      <c r="V46" s="19">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="47" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
@@ -25251,7 +25404,10 @@
       <c r="U47" s="19">
         <v>46</v>
       </c>
-      <c r="V47" s="19"/>
+      <c r="V47" s="19">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
     </row>
     <row r="48" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
@@ -25317,7 +25473,10 @@
       <c r="U48" s="19">
         <v>47</v>
       </c>
-      <c r="V48" s="19"/>
+      <c r="V48" s="19">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="49" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
@@ -25383,7 +25542,10 @@
       <c r="U49" s="19">
         <v>48</v>
       </c>
-      <c r="V49" s="19"/>
+      <c r="V49" s="19">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
     </row>
     <row r="50" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
@@ -25449,7 +25611,10 @@
       <c r="U50" s="19">
         <v>49</v>
       </c>
-      <c r="V50" s="19"/>
+      <c r="V50" s="19">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
     </row>
     <row r="51" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
@@ -25515,7 +25680,10 @@
       <c r="U51" s="19">
         <v>50</v>
       </c>
-      <c r="V51" s="19"/>
+      <c r="V51" s="19">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="52" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
@@ -25581,7 +25749,10 @@
       <c r="U52" s="19">
         <v>51</v>
       </c>
-      <c r="V52" s="19"/>
+      <c r="V52" s="19">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
     </row>
     <row r="53" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
@@ -25647,7 +25818,10 @@
       <c r="U53" s="19">
         <v>52</v>
       </c>
-      <c r="V53" s="19"/>
+      <c r="V53" s="19">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="54" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
@@ -25713,7 +25887,10 @@
       <c r="U54" s="19">
         <v>53</v>
       </c>
-      <c r="V54" s="19"/>
+      <c r="V54" s="19">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="55" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
@@ -25779,7 +25956,10 @@
       <c r="U55" s="19">
         <v>54</v>
       </c>
-      <c r="V55" s="19"/>
+      <c r="V55" s="19">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="56" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
@@ -25845,7 +26025,10 @@
       <c r="U56" s="19">
         <v>55</v>
       </c>
-      <c r="V56" s="19"/>
+      <c r="V56" s="19">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="57" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
@@ -25911,7 +26094,10 @@
       <c r="U57" s="19">
         <v>56</v>
       </c>
-      <c r="V57" s="19"/>
+      <c r="V57" s="19">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="58" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
@@ -25977,7 +26163,10 @@
       <c r="U58" s="19">
         <v>57</v>
       </c>
-      <c r="V58" s="19"/>
+      <c r="V58" s="19">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="59" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
@@ -26043,7 +26232,10 @@
       <c r="U59" s="19">
         <v>58</v>
       </c>
-      <c r="V59" s="19"/>
+      <c r="V59" s="19">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="60" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
@@ -26109,7 +26301,10 @@
       <c r="U60" s="19">
         <v>59</v>
       </c>
-      <c r="V60" s="19"/>
+      <c r="V60" s="19">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
     </row>
     <row r="61" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
@@ -26175,7 +26370,10 @@
       <c r="U61" s="19">
         <v>60</v>
       </c>
-      <c r="V61" s="19"/>
+      <c r="V61" s="19">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="62" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
@@ -26241,7 +26439,10 @@
       <c r="U62" s="19">
         <v>61</v>
       </c>
-      <c r="V62" s="19"/>
+      <c r="V62" s="19">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
     </row>
     <row r="63" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
@@ -26307,7 +26508,10 @@
       <c r="U63" s="19">
         <v>62</v>
       </c>
-      <c r="V63" s="19"/>
+      <c r="V63" s="19">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="64" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -26373,7 +26577,10 @@
       <c r="U64" s="19">
         <v>63</v>
       </c>
-      <c r="V64" s="19"/>
+      <c r="V64" s="19">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
     </row>
     <row r="65" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
@@ -26439,7 +26646,10 @@
       <c r="U65" s="19">
         <v>64</v>
       </c>
-      <c r="V65" s="19"/>
+      <c r="V65" s="19">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
     </row>
     <row r="66" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
@@ -26505,7 +26715,10 @@
       <c r="U66" s="19">
         <v>65</v>
       </c>
-      <c r="V66" s="19"/>
+      <c r="V66" s="19">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="67" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
@@ -26571,7 +26784,10 @@
       <c r="U67" s="19">
         <v>66</v>
       </c>
-      <c r="V67" s="19"/>
+      <c r="V67" s="19">
+        <f t="shared" ref="V67:V130" si="1">SUM(Q67:U67)</f>
+        <v>330</v>
+      </c>
     </row>
     <row r="68" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
@@ -26637,7 +26853,10 @@
       <c r="U68" s="19">
         <v>67</v>
       </c>
-      <c r="V68" s="19"/>
+      <c r="V68" s="19">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
     </row>
     <row r="69" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
@@ -26703,7 +26922,10 @@
       <c r="U69" s="19">
         <v>68</v>
       </c>
-      <c r="V69" s="19"/>
+      <c r="V69" s="19">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
     </row>
     <row r="70" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
@@ -26769,7 +26991,10 @@
       <c r="U70" s="19">
         <v>69</v>
       </c>
-      <c r="V70" s="19"/>
+      <c r="V70" s="19">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
     </row>
     <row r="71" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
@@ -26835,7 +27060,10 @@
       <c r="U71" s="19">
         <v>70</v>
       </c>
-      <c r="V71" s="19"/>
+      <c r="V71" s="19">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="72" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
@@ -26901,7 +27129,10 @@
       <c r="U72" s="19">
         <v>71</v>
       </c>
-      <c r="V72" s="19"/>
+      <c r="V72" s="19">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
     </row>
     <row r="73" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
@@ -26967,7 +27198,10 @@
       <c r="U73" s="19">
         <v>72</v>
       </c>
-      <c r="V73" s="19"/>
+      <c r="V73" s="19">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
     </row>
     <row r="74" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
@@ -27033,7 +27267,10 @@
       <c r="U74" s="19">
         <v>73</v>
       </c>
-      <c r="V74" s="19"/>
+      <c r="V74" s="19">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="75" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
@@ -27099,7 +27336,10 @@
       <c r="U75" s="19">
         <v>74</v>
       </c>
-      <c r="V75" s="19"/>
+      <c r="V75" s="19">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
     </row>
     <row r="76" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
@@ -27165,7 +27405,10 @@
       <c r="U76" s="19">
         <v>75</v>
       </c>
-      <c r="V76" s="19"/>
+      <c r="V76" s="19">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
     </row>
     <row r="77" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
@@ -27231,7 +27474,10 @@
       <c r="U77" s="19">
         <v>76</v>
       </c>
-      <c r="V77" s="19"/>
+      <c r="V77" s="19">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
     </row>
     <row r="78" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
@@ -27297,7 +27543,10 @@
       <c r="U78" s="19">
         <v>77</v>
       </c>
-      <c r="V78" s="19"/>
+      <c r="V78" s="19">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="79" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
@@ -27363,7 +27612,10 @@
       <c r="U79" s="19">
         <v>78</v>
       </c>
-      <c r="V79" s="19"/>
+      <c r="V79" s="19">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
     </row>
     <row r="80" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
@@ -27429,7 +27681,10 @@
       <c r="U80" s="19">
         <v>79</v>
       </c>
-      <c r="V80" s="19"/>
+      <c r="V80" s="19">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
     </row>
     <row r="81" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
@@ -27495,7 +27750,10 @@
       <c r="U81" s="19">
         <v>80</v>
       </c>
-      <c r="V81" s="19"/>
+      <c r="V81" s="19">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="82" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
@@ -27561,7 +27819,10 @@
       <c r="U82" s="19">
         <v>81</v>
       </c>
-      <c r="V82" s="19"/>
+      <c r="V82" s="19">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
     </row>
     <row r="83" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
@@ -27627,7 +27888,10 @@
       <c r="U83" s="19">
         <v>82</v>
       </c>
-      <c r="V83" s="19"/>
+      <c r="V83" s="19">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
     </row>
     <row r="84" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
@@ -27693,7 +27957,10 @@
       <c r="U84" s="19">
         <v>83</v>
       </c>
-      <c r="V84" s="19"/>
+      <c r="V84" s="19">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="85" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
@@ -27759,7 +28026,10 @@
       <c r="U85" s="19">
         <v>84</v>
       </c>
-      <c r="V85" s="19"/>
+      <c r="V85" s="19">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
     </row>
     <row r="86" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
@@ -27825,7 +28095,10 @@
       <c r="U86" s="19">
         <v>85</v>
       </c>
-      <c r="V86" s="19"/>
+      <c r="V86" s="19">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
     </row>
     <row r="87" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
@@ -27891,7 +28164,10 @@
       <c r="U87" s="19">
         <v>86</v>
       </c>
-      <c r="V87" s="19"/>
+      <c r="V87" s="19">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
     </row>
     <row r="88" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
@@ -27957,7 +28233,10 @@
       <c r="U88" s="19">
         <v>87</v>
       </c>
-      <c r="V88" s="19"/>
+      <c r="V88" s="19">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
     </row>
     <row r="89" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
@@ -28023,7 +28302,10 @@
       <c r="U89" s="19">
         <v>88</v>
       </c>
-      <c r="V89" s="19"/>
+      <c r="V89" s="19">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
     </row>
     <row r="90" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
@@ -28089,7 +28371,10 @@
       <c r="U90" s="19">
         <v>89</v>
       </c>
-      <c r="V90" s="19"/>
+      <c r="V90" s="19">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
     </row>
     <row r="91" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
@@ -28155,7 +28440,10 @@
       <c r="U91" s="19">
         <v>90</v>
       </c>
-      <c r="V91" s="19"/>
+      <c r="V91" s="19">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
     </row>
     <row r="92" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
@@ -28221,7 +28509,10 @@
       <c r="U92" s="19">
         <v>91</v>
       </c>
-      <c r="V92" s="19"/>
+      <c r="V92" s="19">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="93" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
@@ -28287,7 +28578,10 @@
       <c r="U93" s="19">
         <v>92</v>
       </c>
-      <c r="V93" s="19"/>
+      <c r="V93" s="19">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
     </row>
     <row r="94" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
@@ -28353,7 +28647,10 @@
       <c r="U94" s="19">
         <v>93</v>
       </c>
-      <c r="V94" s="19"/>
+      <c r="V94" s="19">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="95" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
@@ -28419,7 +28716,10 @@
       <c r="U95" s="19">
         <v>94</v>
       </c>
-      <c r="V95" s="19"/>
+      <c r="V95" s="19">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
     </row>
     <row r="96" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
@@ -28485,7 +28785,10 @@
       <c r="U96" s="19">
         <v>95</v>
       </c>
-      <c r="V96" s="19"/>
+      <c r="V96" s="19">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
     </row>
     <row r="97" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
@@ -28551,7 +28854,10 @@
       <c r="U97" s="19">
         <v>96</v>
       </c>
-      <c r="V97" s="19"/>
+      <c r="V97" s="19">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
     </row>
     <row r="98" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
@@ -28617,7 +28923,10 @@
       <c r="U98" s="19">
         <v>97</v>
       </c>
-      <c r="V98" s="19"/>
+      <c r="V98" s="19">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
     </row>
     <row r="99" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
@@ -28683,7 +28992,10 @@
       <c r="U99" s="19">
         <v>98</v>
       </c>
-      <c r="V99" s="19"/>
+      <c r="V99" s="19">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
     </row>
     <row r="100" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
@@ -28749,7 +29061,10 @@
       <c r="U100" s="19">
         <v>99</v>
       </c>
-      <c r="V100" s="19"/>
+      <c r="V100" s="19">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
     </row>
     <row r="101" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
@@ -28815,7 +29130,10 @@
       <c r="U101" s="19">
         <v>100</v>
       </c>
-      <c r="V101" s="19"/>
+      <c r="V101" s="19">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="102" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
@@ -28881,7 +29199,10 @@
       <c r="U102" s="19">
         <v>101</v>
       </c>
-      <c r="V102" s="19"/>
+      <c r="V102" s="19">
+        <f t="shared" si="1"/>
+        <v>505</v>
+      </c>
     </row>
     <row r="103" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
@@ -28947,7 +29268,10 @@
       <c r="U103" s="19">
         <v>102</v>
       </c>
-      <c r="V103" s="19"/>
+      <c r="V103" s="19">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
     </row>
     <row r="104" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
@@ -29013,7 +29337,10 @@
       <c r="U104" s="19">
         <v>103</v>
       </c>
-      <c r="V104" s="19"/>
+      <c r="V104" s="19">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
     </row>
     <row r="105" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
@@ -29079,7 +29406,10 @@
       <c r="U105" s="19">
         <v>104</v>
       </c>
-      <c r="V105" s="19"/>
+      <c r="V105" s="19">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
     </row>
     <row r="106" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
@@ -29145,7 +29475,10 @@
       <c r="U106" s="19">
         <v>105</v>
       </c>
-      <c r="V106" s="19"/>
+      <c r="V106" s="19">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
     </row>
     <row r="107" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
@@ -29211,7 +29544,10 @@
       <c r="U107" s="19">
         <v>106</v>
       </c>
-      <c r="V107" s="19"/>
+      <c r="V107" s="19">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
     </row>
     <row r="108" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
@@ -29277,7 +29613,10 @@
       <c r="U108" s="19">
         <v>107</v>
       </c>
-      <c r="V108" s="19"/>
+      <c r="V108" s="19">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
     </row>
     <row r="109" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
@@ -29343,7 +29682,10 @@
       <c r="U109" s="19">
         <v>108</v>
       </c>
-      <c r="V109" s="19"/>
+      <c r="V109" s="19">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="110" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
@@ -29409,7 +29751,10 @@
       <c r="U110" s="19">
         <v>109</v>
       </c>
-      <c r="V110" s="19"/>
+      <c r="V110" s="19">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
     </row>
     <row r="111" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
@@ -29475,7 +29820,10 @@
       <c r="U111" s="19">
         <v>110</v>
       </c>
-      <c r="V111" s="19"/>
+      <c r="V111" s="19">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
     </row>
     <row r="112" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
@@ -29541,7 +29889,10 @@
       <c r="U112" s="19">
         <v>111</v>
       </c>
-      <c r="V112" s="19"/>
+      <c r="V112" s="19">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
     </row>
     <row r="113" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
@@ -29607,7 +29958,10 @@
       <c r="U113" s="19">
         <v>112</v>
       </c>
-      <c r="V113" s="19"/>
+      <c r="V113" s="19">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
     </row>
     <row r="114" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
@@ -29673,7 +30027,10 @@
       <c r="U114" s="19">
         <v>113</v>
       </c>
-      <c r="V114" s="19"/>
+      <c r="V114" s="19">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
     </row>
     <row r="115" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
@@ -29739,7 +30096,10 @@
       <c r="U115" s="19">
         <v>114</v>
       </c>
-      <c r="V115" s="19"/>
+      <c r="V115" s="19">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
     </row>
     <row r="116" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
@@ -29805,7 +30165,10 @@
       <c r="U116" s="19">
         <v>115</v>
       </c>
-      <c r="V116" s="19"/>
+      <c r="V116" s="19">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
     </row>
     <row r="117" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
@@ -29871,7 +30234,10 @@
       <c r="U117" s="19">
         <v>116</v>
       </c>
-      <c r="V117" s="19"/>
+      <c r="V117" s="19">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
     </row>
     <row r="118" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
@@ -29937,7 +30303,10 @@
       <c r="U118" s="19">
         <v>117</v>
       </c>
-      <c r="V118" s="19"/>
+      <c r="V118" s="19">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="119" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
@@ -30003,7 +30372,10 @@
       <c r="U119" s="19">
         <v>118</v>
       </c>
-      <c r="V119" s="19"/>
+      <c r="V119" s="19">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
     </row>
     <row r="120" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
@@ -30069,7 +30441,10 @@
       <c r="U120" s="19">
         <v>119</v>
       </c>
-      <c r="V120" s="19"/>
+      <c r="V120" s="19">
+        <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
     </row>
     <row r="121" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
@@ -30135,7 +30510,10 @@
       <c r="U121" s="19">
         <v>120</v>
       </c>
-      <c r="V121" s="19"/>
+      <c r="V121" s="19">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="122" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
@@ -30201,7 +30579,10 @@
       <c r="U122" s="19">
         <v>121</v>
       </c>
-      <c r="V122" s="19"/>
+      <c r="V122" s="19">
+        <f t="shared" si="1"/>
+        <v>605</v>
+      </c>
     </row>
     <row r="123" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
@@ -30267,7 +30648,10 @@
       <c r="U123" s="19">
         <v>122</v>
       </c>
-      <c r="V123" s="19"/>
+      <c r="V123" s="19">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
     </row>
     <row r="124" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
@@ -30333,7 +30717,10 @@
       <c r="U124" s="19">
         <v>123</v>
       </c>
-      <c r="V124" s="19"/>
+      <c r="V124" s="19">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
     </row>
     <row r="125" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
@@ -30399,7 +30786,10 @@
       <c r="U125" s="19">
         <v>124</v>
       </c>
-      <c r="V125" s="19"/>
+      <c r="V125" s="19">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
     </row>
     <row r="126" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
@@ -30465,7 +30855,10 @@
       <c r="U126" s="19">
         <v>125</v>
       </c>
-      <c r="V126" s="19"/>
+      <c r="V126" s="19">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
     </row>
     <row r="127" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
@@ -30531,7 +30924,10 @@
       <c r="U127" s="19">
         <v>126</v>
       </c>
-      <c r="V127" s="19"/>
+      <c r="V127" s="19">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
     </row>
     <row r="128" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
@@ -30597,7 +30993,10 @@
       <c r="U128" s="19">
         <v>127</v>
       </c>
-      <c r="V128" s="19"/>
+      <c r="V128" s="19">
+        <f t="shared" si="1"/>
+        <v>635</v>
+      </c>
     </row>
     <row r="129" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
@@ -30663,7 +31062,10 @@
       <c r="U129" s="19">
         <v>128</v>
       </c>
-      <c r="V129" s="19"/>
+      <c r="V129" s="19">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
     </row>
     <row r="130" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
@@ -30729,7 +31131,10 @@
       <c r="U130" s="19">
         <v>129</v>
       </c>
-      <c r="V130" s="19"/>
+      <c r="V130" s="19">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
     </row>
     <row r="131" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
@@ -30795,7 +31200,10 @@
       <c r="U131" s="19">
         <v>130</v>
       </c>
-      <c r="V131" s="19"/>
+      <c r="V131" s="19">
+        <f t="shared" ref="V131:V194" si="2">SUM(Q131:U131)</f>
+        <v>650</v>
+      </c>
     </row>
     <row r="132" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
@@ -30861,7 +31269,10 @@
       <c r="U132" s="19">
         <v>131</v>
       </c>
-      <c r="V132" s="19"/>
+      <c r="V132" s="19">
+        <f t="shared" si="2"/>
+        <v>655</v>
+      </c>
     </row>
     <row r="133" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
@@ -30927,7 +31338,10 @@
       <c r="U133" s="19">
         <v>132</v>
       </c>
-      <c r="V133" s="19"/>
+      <c r="V133" s="19">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
     </row>
     <row r="134" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
@@ -30993,7 +31407,10 @@
       <c r="U134" s="19">
         <v>133</v>
       </c>
-      <c r="V134" s="19"/>
+      <c r="V134" s="19">
+        <f t="shared" si="2"/>
+        <v>665</v>
+      </c>
     </row>
     <row r="135" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
@@ -31059,7 +31476,10 @@
       <c r="U135" s="19">
         <v>134</v>
       </c>
-      <c r="V135" s="19"/>
+      <c r="V135" s="19">
+        <f t="shared" si="2"/>
+        <v>670</v>
+      </c>
     </row>
     <row r="136" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
@@ -31125,7 +31545,10 @@
       <c r="U136" s="19">
         <v>135</v>
       </c>
-      <c r="V136" s="19"/>
+      <c r="V136" s="19">
+        <f t="shared" si="2"/>
+        <v>675</v>
+      </c>
     </row>
     <row r="137" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
@@ -31191,7 +31614,10 @@
       <c r="U137" s="19">
         <v>136</v>
       </c>
-      <c r="V137" s="19"/>
+      <c r="V137" s="19">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
     </row>
     <row r="138" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
@@ -31257,7 +31683,10 @@
       <c r="U138" s="19">
         <v>137</v>
       </c>
-      <c r="V138" s="19"/>
+      <c r="V138" s="19">
+        <f t="shared" si="2"/>
+        <v>685</v>
+      </c>
     </row>
     <row r="139" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
@@ -31323,7 +31752,10 @@
       <c r="U139" s="19">
         <v>138</v>
       </c>
-      <c r="V139" s="19"/>
+      <c r="V139" s="19">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
     </row>
     <row r="140" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
@@ -31389,7 +31821,10 @@
       <c r="U140" s="19">
         <v>139</v>
       </c>
-      <c r="V140" s="19"/>
+      <c r="V140" s="19">
+        <f t="shared" si="2"/>
+        <v>695</v>
+      </c>
     </row>
     <row r="141" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
@@ -31455,7 +31890,10 @@
       <c r="U141" s="19">
         <v>140</v>
       </c>
-      <c r="V141" s="19"/>
+      <c r="V141" s="19">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
     </row>
     <row r="142" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
@@ -31521,7 +31959,10 @@
       <c r="U142" s="19">
         <v>141</v>
       </c>
-      <c r="V142" s="19"/>
+      <c r="V142" s="19">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
     </row>
     <row r="143" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
@@ -31587,7 +32028,10 @@
       <c r="U143" s="19">
         <v>142</v>
       </c>
-      <c r="V143" s="19"/>
+      <c r="V143" s="19">
+        <f t="shared" si="2"/>
+        <v>710</v>
+      </c>
     </row>
     <row r="144" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
@@ -31653,7 +32097,10 @@
       <c r="U144" s="19">
         <v>143</v>
       </c>
-      <c r="V144" s="19"/>
+      <c r="V144" s="19">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
     </row>
     <row r="145" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
@@ -31719,7 +32166,10 @@
       <c r="U145" s="19">
         <v>144</v>
       </c>
-      <c r="V145" s="19"/>
+      <c r="V145" s="19">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
     </row>
     <row r="146" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
@@ -31785,7 +32235,10 @@
       <c r="U146" s="19">
         <v>145</v>
       </c>
-      <c r="V146" s="19"/>
+      <c r="V146" s="19">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
     </row>
     <row r="147" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
@@ -31851,7 +32304,10 @@
       <c r="U147" s="19">
         <v>146</v>
       </c>
-      <c r="V147" s="19"/>
+      <c r="V147" s="19">
+        <f t="shared" si="2"/>
+        <v>730</v>
+      </c>
     </row>
     <row r="148" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
@@ -31917,7 +32373,10 @@
       <c r="U148" s="19">
         <v>147</v>
       </c>
-      <c r="V148" s="19"/>
+      <c r="V148" s="19">
+        <f t="shared" si="2"/>
+        <v>735</v>
+      </c>
     </row>
     <row r="149" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
@@ -31983,7 +32442,10 @@
       <c r="U149" s="19">
         <v>148</v>
       </c>
-      <c r="V149" s="19"/>
+      <c r="V149" s="19">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
     </row>
     <row r="150" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
@@ -32049,7 +32511,10 @@
       <c r="U150" s="19">
         <v>149</v>
       </c>
-      <c r="V150" s="19"/>
+      <c r="V150" s="19">
+        <f t="shared" si="2"/>
+        <v>745</v>
+      </c>
     </row>
     <row r="151" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
@@ -32115,7 +32580,10 @@
       <c r="U151" s="19">
         <v>150</v>
       </c>
-      <c r="V151" s="19"/>
+      <c r="V151" s="19">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="152" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
@@ -32181,7 +32649,10 @@
       <c r="U152" s="19">
         <v>151</v>
       </c>
-      <c r="V152" s="19"/>
+      <c r="V152" s="19">
+        <f t="shared" si="2"/>
+        <v>755</v>
+      </c>
     </row>
     <row r="153" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
@@ -32247,7 +32718,10 @@
       <c r="U153" s="19">
         <v>152</v>
       </c>
-      <c r="V153" s="19"/>
+      <c r="V153" s="19">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
     </row>
     <row r="154" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
@@ -32313,7 +32787,10 @@
       <c r="U154" s="19">
         <v>153</v>
       </c>
-      <c r="V154" s="19"/>
+      <c r="V154" s="19">
+        <f t="shared" si="2"/>
+        <v>765</v>
+      </c>
     </row>
     <row r="155" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
@@ -32379,7 +32856,10 @@
       <c r="U155" s="19">
         <v>154</v>
       </c>
-      <c r="V155" s="19"/>
+      <c r="V155" s="19">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
     </row>
     <row r="156" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
@@ -32445,7 +32925,10 @@
       <c r="U156" s="19">
         <v>155</v>
       </c>
-      <c r="V156" s="19"/>
+      <c r="V156" s="19">
+        <f t="shared" si="2"/>
+        <v>775</v>
+      </c>
     </row>
     <row r="157" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
@@ -32511,7 +32994,10 @@
       <c r="U157" s="19">
         <v>156</v>
       </c>
-      <c r="V157" s="19"/>
+      <c r="V157" s="19">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
     </row>
     <row r="158" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
@@ -32577,7 +33063,10 @@
       <c r="U158" s="19">
         <v>157</v>
       </c>
-      <c r="V158" s="19"/>
+      <c r="V158" s="19">
+        <f t="shared" si="2"/>
+        <v>785</v>
+      </c>
     </row>
     <row r="159" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
@@ -32643,7 +33132,10 @@
       <c r="U159" s="19">
         <v>158</v>
       </c>
-      <c r="V159" s="19"/>
+      <c r="V159" s="19">
+        <f t="shared" si="2"/>
+        <v>790</v>
+      </c>
     </row>
     <row r="160" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
@@ -32709,7 +33201,10 @@
       <c r="U160" s="19">
         <v>159</v>
       </c>
-      <c r="V160" s="19"/>
+      <c r="V160" s="19">
+        <f t="shared" si="2"/>
+        <v>795</v>
+      </c>
     </row>
     <row r="161" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
@@ -32775,7 +33270,10 @@
       <c r="U161" s="19">
         <v>160</v>
       </c>
-      <c r="V161" s="19"/>
+      <c r="V161" s="19">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
     </row>
     <row r="162" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
@@ -32841,7 +33339,10 @@
       <c r="U162" s="19">
         <v>161</v>
       </c>
-      <c r="V162" s="19"/>
+      <c r="V162" s="19">
+        <f t="shared" si="2"/>
+        <v>805</v>
+      </c>
     </row>
     <row r="163" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
@@ -32907,7 +33408,10 @@
       <c r="U163" s="19">
         <v>162</v>
       </c>
-      <c r="V163" s="19"/>
+      <c r="V163" s="19">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
     </row>
     <row r="164" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
@@ -32973,7 +33477,10 @@
       <c r="U164" s="19">
         <v>163</v>
       </c>
-      <c r="V164" s="19"/>
+      <c r="V164" s="19">
+        <f t="shared" si="2"/>
+        <v>815</v>
+      </c>
     </row>
     <row r="165" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
@@ -33039,7 +33546,10 @@
       <c r="U165" s="19">
         <v>164</v>
       </c>
-      <c r="V165" s="19"/>
+      <c r="V165" s="19">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
     </row>
     <row r="166" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
@@ -33105,7 +33615,10 @@
       <c r="U166" s="19">
         <v>165</v>
       </c>
-      <c r="V166" s="19"/>
+      <c r="V166" s="19">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
     </row>
     <row r="167" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
@@ -33171,7 +33684,10 @@
       <c r="U167" s="19">
         <v>166</v>
       </c>
-      <c r="V167" s="19"/>
+      <c r="V167" s="19">
+        <f t="shared" si="2"/>
+        <v>830</v>
+      </c>
     </row>
     <row r="168" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
@@ -33237,7 +33753,10 @@
       <c r="U168" s="19">
         <v>167</v>
       </c>
-      <c r="V168" s="19"/>
+      <c r="V168" s="19">
+        <f t="shared" si="2"/>
+        <v>835</v>
+      </c>
     </row>
     <row r="169" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
@@ -33303,7 +33822,10 @@
       <c r="U169" s="19">
         <v>168</v>
       </c>
-      <c r="V169" s="19"/>
+      <c r="V169" s="19">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
     </row>
     <row r="170" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
@@ -33369,7 +33891,10 @@
       <c r="U170" s="19">
         <v>169</v>
       </c>
-      <c r="V170" s="19"/>
+      <c r="V170" s="19">
+        <f t="shared" si="2"/>
+        <v>845</v>
+      </c>
     </row>
     <row r="171" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
@@ -33435,7 +33960,10 @@
       <c r="U171" s="19">
         <v>170</v>
       </c>
-      <c r="V171" s="19"/>
+      <c r="V171" s="19">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
     </row>
     <row r="172" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
@@ -33501,7 +34029,10 @@
       <c r="U172" s="19">
         <v>171</v>
       </c>
-      <c r="V172" s="19"/>
+      <c r="V172" s="19">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
     </row>
     <row r="173" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
@@ -33567,7 +34098,10 @@
       <c r="U173" s="19">
         <v>172</v>
       </c>
-      <c r="V173" s="19"/>
+      <c r="V173" s="19">
+        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
     </row>
     <row r="174" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
@@ -33633,7 +34167,10 @@
       <c r="U174" s="19">
         <v>173</v>
       </c>
-      <c r="V174" s="19"/>
+      <c r="V174" s="19">
+        <f t="shared" si="2"/>
+        <v>865</v>
+      </c>
     </row>
     <row r="175" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
@@ -33699,7 +34236,10 @@
       <c r="U175" s="19">
         <v>174</v>
       </c>
-      <c r="V175" s="19"/>
+      <c r="V175" s="19">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
     </row>
     <row r="176" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
@@ -33765,7 +34305,10 @@
       <c r="U176" s="19">
         <v>175</v>
       </c>
-      <c r="V176" s="19"/>
+      <c r="V176" s="19">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
     </row>
     <row r="177" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
@@ -33831,7 +34374,10 @@
       <c r="U177" s="19">
         <v>176</v>
       </c>
-      <c r="V177" s="19"/>
+      <c r="V177" s="19">
+        <f t="shared" si="2"/>
+        <v>880</v>
+      </c>
     </row>
     <row r="178" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
@@ -33897,7 +34443,10 @@
       <c r="U178" s="19">
         <v>177</v>
       </c>
-      <c r="V178" s="19"/>
+      <c r="V178" s="19">
+        <f t="shared" si="2"/>
+        <v>885</v>
+      </c>
     </row>
     <row r="179" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
@@ -33963,7 +34512,10 @@
       <c r="U179" s="19">
         <v>178</v>
       </c>
-      <c r="V179" s="19"/>
+      <c r="V179" s="19">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
     </row>
     <row r="180" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
@@ -34029,7 +34581,10 @@
       <c r="U180" s="19">
         <v>179</v>
       </c>
-      <c r="V180" s="19"/>
+      <c r="V180" s="19">
+        <f t="shared" si="2"/>
+        <v>895</v>
+      </c>
     </row>
     <row r="181" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
@@ -34095,7 +34650,10 @@
       <c r="U181" s="19">
         <v>180</v>
       </c>
-      <c r="V181" s="19"/>
+      <c r="V181" s="19">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
     </row>
     <row r="182" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17">
@@ -34161,7 +34719,10 @@
       <c r="U182" s="19">
         <v>181</v>
       </c>
-      <c r="V182" s="19"/>
+      <c r="V182" s="19">
+        <f t="shared" si="2"/>
+        <v>905</v>
+      </c>
     </row>
     <row r="183" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
@@ -34227,7 +34788,10 @@
       <c r="U183" s="19">
         <v>182</v>
       </c>
-      <c r="V183" s="19"/>
+      <c r="V183" s="19">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
     </row>
     <row r="184" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
@@ -34293,7 +34857,10 @@
       <c r="U184" s="19">
         <v>183</v>
       </c>
-      <c r="V184" s="19"/>
+      <c r="V184" s="19">
+        <f t="shared" si="2"/>
+        <v>915</v>
+      </c>
     </row>
     <row r="185" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
@@ -34359,7 +34926,10 @@
       <c r="U185" s="19">
         <v>184</v>
       </c>
-      <c r="V185" s="19"/>
+      <c r="V185" s="19">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
     </row>
     <row r="186" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
@@ -34425,7 +34995,10 @@
       <c r="U186" s="19">
         <v>185</v>
       </c>
-      <c r="V186" s="19"/>
+      <c r="V186" s="19">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
     </row>
     <row r="187" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
@@ -34491,7 +35064,10 @@
       <c r="U187" s="19">
         <v>186</v>
       </c>
-      <c r="V187" s="19"/>
+      <c r="V187" s="19">
+        <f t="shared" si="2"/>
+        <v>930</v>
+      </c>
     </row>
     <row r="188" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17">
@@ -34557,7 +35133,10 @@
       <c r="U188" s="19">
         <v>187</v>
       </c>
-      <c r="V188" s="19"/>
+      <c r="V188" s="19">
+        <f t="shared" si="2"/>
+        <v>935</v>
+      </c>
     </row>
     <row r="189" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17">
@@ -34623,7 +35202,10 @@
       <c r="U189" s="19">
         <v>188</v>
       </c>
-      <c r="V189" s="19"/>
+      <c r="V189" s="19">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
     </row>
     <row r="190" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
@@ -34689,7 +35271,10 @@
       <c r="U190" s="19">
         <v>189</v>
       </c>
-      <c r="V190" s="19"/>
+      <c r="V190" s="19">
+        <f t="shared" si="2"/>
+        <v>945</v>
+      </c>
     </row>
     <row r="191" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17">
@@ -34755,7 +35340,10 @@
       <c r="U191" s="19">
         <v>190</v>
       </c>
-      <c r="V191" s="19"/>
+      <c r="V191" s="19">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
     </row>
     <row r="192" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17">
@@ -34821,7 +35409,10 @@
       <c r="U192" s="19">
         <v>191</v>
       </c>
-      <c r="V192" s="19"/>
+      <c r="V192" s="19">
+        <f t="shared" si="2"/>
+        <v>955</v>
+      </c>
     </row>
     <row r="193" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17">
@@ -34887,7 +35478,10 @@
       <c r="U193" s="19">
         <v>192</v>
       </c>
-      <c r="V193" s="19"/>
+      <c r="V193" s="19">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
     </row>
     <row r="194" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17">
@@ -34953,7 +35547,10 @@
       <c r="U194" s="19">
         <v>193</v>
       </c>
-      <c r="V194" s="19"/>
+      <c r="V194" s="19">
+        <f t="shared" si="2"/>
+        <v>965</v>
+      </c>
     </row>
     <row r="195" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17">
@@ -35019,7 +35616,10 @@
       <c r="U195" s="19">
         <v>194</v>
       </c>
-      <c r="V195" s="19"/>
+      <c r="V195" s="19">
+        <f t="shared" ref="V195:V258" si="3">SUM(Q195:U195)</f>
+        <v>970</v>
+      </c>
     </row>
     <row r="196" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
@@ -35085,7 +35685,10 @@
       <c r="U196" s="19">
         <v>195</v>
       </c>
-      <c r="V196" s="19"/>
+      <c r="V196" s="19">
+        <f t="shared" si="3"/>
+        <v>975</v>
+      </c>
     </row>
     <row r="197" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17">
@@ -35151,7 +35754,10 @@
       <c r="U197" s="19">
         <v>196</v>
       </c>
-      <c r="V197" s="19"/>
+      <c r="V197" s="19">
+        <f t="shared" si="3"/>
+        <v>980</v>
+      </c>
     </row>
     <row r="198" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17">
@@ -35217,7 +35823,10 @@
       <c r="U198" s="19">
         <v>197</v>
       </c>
-      <c r="V198" s="19"/>
+      <c r="V198" s="19">
+        <f t="shared" si="3"/>
+        <v>985</v>
+      </c>
     </row>
     <row r="199" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17">
@@ -35283,7 +35892,10 @@
       <c r="U199" s="19">
         <v>198</v>
       </c>
-      <c r="V199" s="19"/>
+      <c r="V199" s="19">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
     </row>
     <row r="200" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17">
@@ -35349,7 +35961,10 @@
       <c r="U200" s="19">
         <v>199</v>
       </c>
-      <c r="V200" s="19"/>
+      <c r="V200" s="19">
+        <f t="shared" si="3"/>
+        <v>995</v>
+      </c>
     </row>
     <row r="201" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17">
@@ -35415,7 +36030,10 @@
       <c r="U201" s="19">
         <v>200</v>
       </c>
-      <c r="V201" s="19"/>
+      <c r="V201" s="19">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="202" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="17">
@@ -35481,7 +36099,10 @@
       <c r="U202" s="19">
         <v>201</v>
       </c>
-      <c r="V202" s="19"/>
+      <c r="V202" s="19">
+        <f t="shared" si="3"/>
+        <v>1005</v>
+      </c>
     </row>
     <row r="203" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
@@ -35547,7 +36168,10 @@
       <c r="U203" s="19">
         <v>202</v>
       </c>
-      <c r="V203" s="19"/>
+      <c r="V203" s="19">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
     </row>
     <row r="204" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="17">
@@ -35613,7 +36237,10 @@
       <c r="U204" s="19">
         <v>203</v>
       </c>
-      <c r="V204" s="19"/>
+      <c r="V204" s="19">
+        <f t="shared" si="3"/>
+        <v>1015</v>
+      </c>
     </row>
     <row r="205" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17">
@@ -35679,7 +36306,10 @@
       <c r="U205" s="19">
         <v>204</v>
       </c>
-      <c r="V205" s="19"/>
+      <c r="V205" s="19">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
     </row>
     <row r="206" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="17">
@@ -35745,7 +36375,10 @@
       <c r="U206" s="19">
         <v>205</v>
       </c>
-      <c r="V206" s="19"/>
+      <c r="V206" s="19">
+        <f t="shared" si="3"/>
+        <v>1025</v>
+      </c>
     </row>
     <row r="207" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17">
@@ -35811,7 +36444,10 @@
       <c r="U207" s="19">
         <v>206</v>
       </c>
-      <c r="V207" s="19"/>
+      <c r="V207" s="19">
+        <f t="shared" si="3"/>
+        <v>1030</v>
+      </c>
     </row>
     <row r="208" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="17">
@@ -35877,7 +36513,10 @@
       <c r="U208" s="19">
         <v>207</v>
       </c>
-      <c r="V208" s="19"/>
+      <c r="V208" s="19">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
     </row>
     <row r="209" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17">
@@ -35943,7 +36582,10 @@
       <c r="U209" s="19">
         <v>208</v>
       </c>
-      <c r="V209" s="19"/>
+      <c r="V209" s="19">
+        <f t="shared" si="3"/>
+        <v>1040</v>
+      </c>
     </row>
     <row r="210" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17">
@@ -36009,7 +36651,10 @@
       <c r="U210" s="19">
         <v>209</v>
       </c>
-      <c r="V210" s="19"/>
+      <c r="V210" s="19">
+        <f t="shared" si="3"/>
+        <v>1045</v>
+      </c>
     </row>
     <row r="211" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17">
@@ -36075,7 +36720,10 @@
       <c r="U211" s="19">
         <v>210</v>
       </c>
-      <c r="V211" s="19"/>
+      <c r="V211" s="19">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
     </row>
     <row r="212" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17">
@@ -36141,7 +36789,10 @@
       <c r="U212" s="19">
         <v>211</v>
       </c>
-      <c r="V212" s="19"/>
+      <c r="V212" s="19">
+        <f t="shared" si="3"/>
+        <v>1055</v>
+      </c>
     </row>
     <row r="213" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17">
@@ -36207,7 +36858,10 @@
       <c r="U213" s="19">
         <v>212</v>
       </c>
-      <c r="V213" s="19"/>
+      <c r="V213" s="19">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
     </row>
     <row r="214" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17">
@@ -36273,7 +36927,10 @@
       <c r="U214" s="19">
         <v>213</v>
       </c>
-      <c r="V214" s="19"/>
+      <c r="V214" s="19">
+        <f t="shared" si="3"/>
+        <v>1065</v>
+      </c>
     </row>
     <row r="215" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="17">
@@ -36339,7 +36996,10 @@
       <c r="U215" s="19">
         <v>214</v>
       </c>
-      <c r="V215" s="19"/>
+      <c r="V215" s="19">
+        <f t="shared" si="3"/>
+        <v>1070</v>
+      </c>
     </row>
     <row r="216" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17">
@@ -36405,7 +37065,10 @@
       <c r="U216" s="19">
         <v>215</v>
       </c>
-      <c r="V216" s="19"/>
+      <c r="V216" s="19">
+        <f t="shared" si="3"/>
+        <v>1075</v>
+      </c>
     </row>
     <row r="217" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17">
@@ -36471,7 +37134,10 @@
       <c r="U217" s="19">
         <v>216</v>
       </c>
-      <c r="V217" s="19"/>
+      <c r="V217" s="19">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
     </row>
     <row r="218" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17">
@@ -36537,7 +37203,10 @@
       <c r="U218" s="19">
         <v>217</v>
       </c>
-      <c r="V218" s="19"/>
+      <c r="V218" s="19">
+        <f t="shared" si="3"/>
+        <v>1085</v>
+      </c>
     </row>
     <row r="219" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17">
@@ -36603,7 +37272,10 @@
       <c r="U219" s="19">
         <v>218</v>
       </c>
-      <c r="V219" s="19"/>
+      <c r="V219" s="19">
+        <f t="shared" si="3"/>
+        <v>1090</v>
+      </c>
     </row>
     <row r="220" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17">
@@ -36669,7 +37341,10 @@
       <c r="U220" s="19">
         <v>219</v>
       </c>
-      <c r="V220" s="19"/>
+      <c r="V220" s="19">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
     </row>
     <row r="221" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17">
@@ -36735,7 +37410,10 @@
       <c r="U221" s="19">
         <v>220</v>
       </c>
-      <c r="V221" s="19"/>
+      <c r="V221" s="19">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
     </row>
     <row r="222" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="17">
@@ -36801,7 +37479,10 @@
       <c r="U222" s="19">
         <v>221</v>
       </c>
-      <c r="V222" s="19"/>
+      <c r="V222" s="19">
+        <f t="shared" si="3"/>
+        <v>1105</v>
+      </c>
     </row>
     <row r="223" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="17">
@@ -36867,7 +37548,10 @@
       <c r="U223" s="19">
         <v>222</v>
       </c>
-      <c r="V223" s="19"/>
+      <c r="V223" s="19">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
     </row>
     <row r="224" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="17">
@@ -36933,7 +37617,10 @@
       <c r="U224" s="19">
         <v>223</v>
       </c>
-      <c r="V224" s="19"/>
+      <c r="V224" s="19">
+        <f t="shared" si="3"/>
+        <v>1115</v>
+      </c>
     </row>
     <row r="225" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="17">
@@ -36999,7 +37686,10 @@
       <c r="U225" s="19">
         <v>224</v>
       </c>
-      <c r="V225" s="19"/>
+      <c r="V225" s="19">
+        <f t="shared" si="3"/>
+        <v>1120</v>
+      </c>
     </row>
     <row r="226" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="17">
@@ -37065,7 +37755,10 @@
       <c r="U226" s="19">
         <v>225</v>
       </c>
-      <c r="V226" s="19"/>
+      <c r="V226" s="19">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
     </row>
     <row r="227" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="17">
@@ -37131,7 +37824,10 @@
       <c r="U227" s="19">
         <v>226</v>
       </c>
-      <c r="V227" s="19"/>
+      <c r="V227" s="19">
+        <f t="shared" si="3"/>
+        <v>1130</v>
+      </c>
     </row>
     <row r="228" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
@@ -37197,7 +37893,10 @@
       <c r="U228" s="19">
         <v>227</v>
       </c>
-      <c r="V228" s="19"/>
+      <c r="V228" s="19">
+        <f t="shared" si="3"/>
+        <v>1135</v>
+      </c>
     </row>
     <row r="229" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="17">
@@ -37263,7 +37962,10 @@
       <c r="U229" s="19">
         <v>228</v>
       </c>
-      <c r="V229" s="19"/>
+      <c r="V229" s="19">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
     </row>
     <row r="230" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="17">
@@ -37329,7 +38031,10 @@
       <c r="U230" s="19">
         <v>229</v>
       </c>
-      <c r="V230" s="19"/>
+      <c r="V230" s="19">
+        <f t="shared" si="3"/>
+        <v>1145</v>
+      </c>
     </row>
     <row r="231" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="17">
@@ -37395,7 +38100,10 @@
       <c r="U231" s="19">
         <v>230</v>
       </c>
-      <c r="V231" s="19"/>
+      <c r="V231" s="19">
+        <f t="shared" si="3"/>
+        <v>1150</v>
+      </c>
     </row>
     <row r="232" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="17">
@@ -37461,7 +38169,10 @@
       <c r="U232" s="19">
         <v>231</v>
       </c>
-      <c r="V232" s="19"/>
+      <c r="V232" s="19">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
     </row>
     <row r="233" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17">
@@ -37527,7 +38238,10 @@
       <c r="U233" s="19">
         <v>232</v>
       </c>
-      <c r="V233" s="19"/>
+      <c r="V233" s="19">
+        <f t="shared" si="3"/>
+        <v>1160</v>
+      </c>
     </row>
     <row r="234" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="17">
@@ -37593,7 +38307,10 @@
       <c r="U234" s="19">
         <v>233</v>
       </c>
-      <c r="V234" s="19"/>
+      <c r="V234" s="19">
+        <f t="shared" si="3"/>
+        <v>1165</v>
+      </c>
     </row>
     <row r="235" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17">
@@ -37659,7 +38376,10 @@
       <c r="U235" s="19">
         <v>234</v>
       </c>
-      <c r="V235" s="19"/>
+      <c r="V235" s="19">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
     </row>
     <row r="236" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="17">
@@ -37725,7 +38445,10 @@
       <c r="U236" s="19">
         <v>235</v>
       </c>
-      <c r="V236" s="19"/>
+      <c r="V236" s="19">
+        <f t="shared" si="3"/>
+        <v>1175</v>
+      </c>
     </row>
     <row r="237" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17">
@@ -37791,7 +38514,10 @@
       <c r="U237" s="19">
         <v>236</v>
       </c>
-      <c r="V237" s="19"/>
+      <c r="V237" s="19">
+        <f t="shared" si="3"/>
+        <v>1180</v>
+      </c>
     </row>
     <row r="238" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="17">
@@ -37857,7 +38583,10 @@
       <c r="U238" s="19">
         <v>237</v>
       </c>
-      <c r="V238" s="19"/>
+      <c r="V238" s="19">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
     </row>
     <row r="239" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="17">
@@ -37923,7 +38652,10 @@
       <c r="U239" s="19">
         <v>238</v>
       </c>
-      <c r="V239" s="19"/>
+      <c r="V239" s="19">
+        <f t="shared" si="3"/>
+        <v>1190</v>
+      </c>
     </row>
     <row r="240" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="17">
@@ -37989,7 +38721,10 @@
       <c r="U240" s="19">
         <v>239</v>
       </c>
-      <c r="V240" s="19"/>
+      <c r="V240" s="19">
+        <f t="shared" si="3"/>
+        <v>1195</v>
+      </c>
     </row>
     <row r="241" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="17">
@@ -38055,7 +38790,10 @@
       <c r="U241" s="19">
         <v>240</v>
       </c>
-      <c r="V241" s="19"/>
+      <c r="V241" s="19">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
     </row>
     <row r="242" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="17">
@@ -38121,7 +38859,10 @@
       <c r="U242" s="19">
         <v>241</v>
       </c>
-      <c r="V242" s="19"/>
+      <c r="V242" s="19">
+        <f t="shared" si="3"/>
+        <v>1205</v>
+      </c>
     </row>
     <row r="243" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="17">
@@ -38187,7 +38928,10 @@
       <c r="U243" s="19">
         <v>242</v>
       </c>
-      <c r="V243" s="19"/>
+      <c r="V243" s="19">
+        <f t="shared" si="3"/>
+        <v>1210</v>
+      </c>
     </row>
     <row r="244" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="17">
@@ -38253,7 +38997,10 @@
       <c r="U244" s="19">
         <v>243</v>
       </c>
-      <c r="V244" s="19"/>
+      <c r="V244" s="19">
+        <f t="shared" si="3"/>
+        <v>1215</v>
+      </c>
     </row>
     <row r="245" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="17">
@@ -38319,7 +39066,10 @@
       <c r="U245" s="19">
         <v>244</v>
       </c>
-      <c r="V245" s="19"/>
+      <c r="V245" s="19">
+        <f t="shared" si="3"/>
+        <v>1220</v>
+      </c>
     </row>
     <row r="246" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="17">
@@ -38385,7 +39135,10 @@
       <c r="U246" s="19">
         <v>245</v>
       </c>
-      <c r="V246" s="19"/>
+      <c r="V246" s="19">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
     </row>
     <row r="247" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="17">
@@ -38451,7 +39204,10 @@
       <c r="U247" s="19">
         <v>246</v>
       </c>
-      <c r="V247" s="19"/>
+      <c r="V247" s="19">
+        <f t="shared" si="3"/>
+        <v>1230</v>
+      </c>
     </row>
     <row r="248" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="17">
@@ -38517,7 +39273,10 @@
       <c r="U248" s="19">
         <v>247</v>
       </c>
-      <c r="V248" s="19"/>
+      <c r="V248" s="19">
+        <f t="shared" si="3"/>
+        <v>1235</v>
+      </c>
     </row>
     <row r="249" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17">
@@ -38583,7 +39342,10 @@
       <c r="U249" s="19">
         <v>248</v>
       </c>
-      <c r="V249" s="19"/>
+      <c r="V249" s="19">
+        <f t="shared" si="3"/>
+        <v>1240</v>
+      </c>
     </row>
     <row r="250" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
@@ -38645,7 +39407,10 @@
       <c r="U250" s="19">
         <v>249</v>
       </c>
-      <c r="V250" s="19"/>
+      <c r="V250" s="19">
+        <f t="shared" si="3"/>
+        <v>1245</v>
+      </c>
     </row>
     <row r="251" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="17">
@@ -38711,7 +39476,10 @@
       <c r="U251" s="19">
         <v>250</v>
       </c>
-      <c r="V251" s="19"/>
+      <c r="V251" s="19">
+        <f t="shared" si="3"/>
+        <v>1250</v>
+      </c>
     </row>
     <row r="252" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="17">
@@ -38777,7 +39545,10 @@
       <c r="U252" s="19">
         <v>251</v>
       </c>
-      <c r="V252" s="19"/>
+      <c r="V252" s="19">
+        <f t="shared" si="3"/>
+        <v>1255</v>
+      </c>
     </row>
     <row r="253" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="17">
@@ -38843,7 +39614,10 @@
       <c r="U253" s="19">
         <v>252</v>
       </c>
-      <c r="V253" s="19"/>
+      <c r="V253" s="19">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
     </row>
     <row r="254" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="17">
@@ -38909,7 +39683,10 @@
       <c r="U254" s="19">
         <v>253</v>
       </c>
-      <c r="V254" s="19"/>
+      <c r="V254" s="19">
+        <f t="shared" si="3"/>
+        <v>1265</v>
+      </c>
     </row>
     <row r="255" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="17">
@@ -38975,7 +39752,10 @@
       <c r="U255" s="19">
         <v>254</v>
       </c>
-      <c r="V255" s="19"/>
+      <c r="V255" s="19">
+        <f t="shared" si="3"/>
+        <v>1270</v>
+      </c>
     </row>
     <row r="256" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="17">
@@ -39041,7 +39821,10 @@
       <c r="U256" s="19">
         <v>255</v>
       </c>
-      <c r="V256" s="19"/>
+      <c r="V256" s="19">
+        <f t="shared" si="3"/>
+        <v>1275</v>
+      </c>
     </row>
     <row r="257" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="17">
@@ -39107,7 +39890,10 @@
       <c r="U257" s="19">
         <v>256</v>
       </c>
-      <c r="V257" s="19"/>
+      <c r="V257" s="19">
+        <f t="shared" si="3"/>
+        <v>1280</v>
+      </c>
     </row>
     <row r="258" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="17">
@@ -39173,7 +39959,10 @@
       <c r="U258" s="19">
         <v>257</v>
       </c>
-      <c r="V258" s="19"/>
+      <c r="V258" s="19">
+        <f t="shared" si="3"/>
+        <v>1285</v>
+      </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A259" s="10"/>
